--- a/Data/Forecasts/DA/2023-12-04_exo[].xlsx
+++ b/Data/Forecasts/DA/2023-12-04_exo[].xlsx
@@ -454,7 +454,7 @@
         <v>45264</v>
       </c>
       <c r="B2" t="n">
-        <v>94.91151428222656</v>
+        <v>92.01441192626953</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>45264.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>95.18972778320312</v>
+        <v>92.06435394287109</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>45264.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>99.00569915771484</v>
+        <v>94.12319183349609</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>45264.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>99.31815338134766</v>
+        <v>94.20018005371094</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45264.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>97.69725036621094</v>
+        <v>91.93358612060547</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45264.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>97.75878143310547</v>
+        <v>92.01475524902344</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45264.125</v>
       </c>
       <c r="B8" t="n">
-        <v>97.68772125244141</v>
+        <v>90.50289154052734</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45264.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>97.79896545410156</v>
+        <v>90.61515045166016</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45264.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>95.45893096923828</v>
+        <v>89.81863403320312</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45264.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>95.56437683105469</v>
+        <v>89.92295074462891</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45264.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>90.61171722412109</v>
+        <v>89.08560943603516</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45264.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>90.71317291259766</v>
+        <v>89.18537139892578</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45264.25</v>
       </c>
       <c r="B14" t="n">
-        <v>98.71478271484375</v>
+        <v>96.22895812988281</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45264.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>98.81389617919922</v>
+        <v>96.32610321044922</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45264.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>117.4765243530273</v>
+        <v>114.5813369750977</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45264.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>117.5735168457031</v>
+        <v>114.6759948730469</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45264.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>123.1921463012695</v>
+        <v>128.3124542236328</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45264.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>123.2924346923828</v>
+        <v>128.4047241210938</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45264.375</v>
       </c>
       <c r="B20" t="n">
-        <v>138.5004119873047</v>
+        <v>141.5168304443359</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45264.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>138.5970764160156</v>
+        <v>141.6029205322266</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45264.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>143.966064453125</v>
+        <v>141.3161926269531</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45264.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>144.0584259033203</v>
+        <v>141.3960876464844</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45264.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>136.5822906494141</v>
+        <v>133.8856048583984</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45264.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>136.6713409423828</v>
+        <v>133.9608917236328</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>45264.5</v>
       </c>
       <c r="B26" t="n">
-        <v>140.82861328125</v>
+        <v>136.4703979492188</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>45264.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>140.9169921875</v>
+        <v>136.5442047119141</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>45264.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>136.4393005371094</v>
+        <v>131.8370971679688</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>45264.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>136.5302886962891</v>
+        <v>131.9131927490234</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>45264.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>137.6055755615234</v>
+        <v>136.4724426269531</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>45264.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>137.7026214599609</v>
+        <v>136.5547637939453</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>45264.625</v>
       </c>
       <c r="B32" t="n">
-        <v>146.6024627685547</v>
+        <v>150.7989654541016</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>45264.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>146.7082977294922</v>
+        <v>150.8905792236328</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>45264.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>176.4212646484375</v>
+        <v>178.1812286376953</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>45264.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>176.537841796875</v>
+        <v>178.2843017578125</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>45264.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>194.9620361328125</v>
+        <v>202.3189544677734</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>45264.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>195.0910186767578</v>
+        <v>202.4351654052734</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>45264.75</v>
       </c>
       <c r="B38" t="n">
-        <v>168.4579467773438</v>
+        <v>174.9986267089844</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>45264.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>168.6005859375</v>
+        <v>175.1290740966797</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>45264.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>135.5137023925781</v>
+        <v>138.7809600830078</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>45264.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>135.6706085205078</v>
+        <v>138.9259185791016</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>45264.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>116.5050354003906</v>
+        <v>120.2549209594727</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>45264.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>116.6759185791016</v>
+        <v>120.4136581420898</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>45264.875</v>
       </c>
       <c r="B44" t="n">
-        <v>107.6827545166016</v>
+        <v>106.5871047973633</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>45264.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>107.8669204711914</v>
+        <v>106.7581939697266</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>45264.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>94.92209625244141</v>
+        <v>94.4610595703125</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>45264.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>95.12288665771484</v>
+        <v>94.64311218261719</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>45264.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>87.18730163574219</v>
+        <v>87.37326049804688</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>45264.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>87.40086364746094</v>
+        <v>87.56507873535156</v>
       </c>
     </row>
   </sheetData>
